--- a/ReportsQ4/JFac.xlsx
+++ b/ReportsQ4/JFac.xlsx
@@ -1,26 +1,404 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkang\Desktop\updateSite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D9A4A-43B5-4BF6-82DF-42B3C9B2AF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Project Timeline'!$A$2:$O$16</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Timeline'!$2:$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>Percent (%) Complete</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>START DATE</t>
+  </si>
+  <si>
+    <t>END DATE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>CONTACT PERSON</t>
+  </si>
+  <si>
+    <t>GOAL</t>
+  </si>
+  <si>
+    <t>OBJ</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Develop and implement family engagement activities (i.e. family night, parent orientation, etc.).</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Include clinicians in multidisciplinary team meetings for medium-to-high-risk juvenile clients.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Fully implement Tyler Supervision.</t>
+  </si>
+  <si>
+    <t>Ian Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revise the intake process to include an assessments of juveniles’ housing needs. </t>
+  </si>
+  <si>
+    <t>Establish Tyler Supervision core team for Juvenile Facilities.</t>
+  </si>
+  <si>
+    <t>Implement programming in Juvenile Hall to address criminogenic needs and life skills in ways that are appealing to youth.</t>
+  </si>
+  <si>
+    <t>Ian Long/James Rivers</t>
+  </si>
+  <si>
+    <t>James Rivers/Ian Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superintendents </t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>On Target</t>
+  </si>
+  <si>
+    <t>Phase 1: Oct 2019--Dec 2020
+Phase 2: Jan 2021--June 2022
+Phase 3: July 2022--Dec 2023</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>October 2019</t>
+  </si>
+  <si>
+    <t>January 2020</t>
+  </si>
+  <si>
+    <t>July 2019</t>
+  </si>
+  <si>
+    <t>February 2020</t>
+  </si>
+  <si>
+    <t>June 2020</t>
+  </si>
+  <si>
+    <t>December 2020</t>
+  </si>
+  <si>
+    <t>September 2019</t>
+  </si>
+  <si>
+    <t>Implement a detention assessment tool in Juvenile Hall.</t>
+  </si>
+  <si>
+    <t>Validate the detention assessment tool in Juvenile Hall.</t>
+  </si>
+  <si>
+    <t>March 2020</t>
+  </si>
+  <si>
+    <t>Brian Ford</t>
+  </si>
+  <si>
+    <t>Provide tablets to all youth in Juvenile Hall and Camp Sweeney for academic and incentive programming.</t>
+  </si>
+  <si>
+    <t>COMPLETED TASKS</t>
+  </si>
+  <si>
+    <t>ONGOING TASKS</t>
+  </si>
+  <si>
+    <t>PHASE 2 &amp; 3 TASKS</t>
+  </si>
+  <si>
+    <t>PHASE 1 TASKS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Complete: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>BLUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+On Target: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>GREEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+At Risk: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>YELLOW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Past Due: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>RED</t>
+    </r>
+  </si>
+  <si>
+    <t>New classification policy started in Feb; training completed for new process</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>June 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+August 2020</t>
+    </r>
+  </si>
+  <si>
+    <t>TS went live, work ongoing as needed</t>
+  </si>
+  <si>
+    <t>Providing ART and One circle programs. Still needs to train 60 staff in BITS. In October 2020, 8 staff completed Courage to Change training and have received journals for individuals and group CBT programs</t>
+  </si>
+  <si>
+    <t>Laura Chavez</t>
+  </si>
+  <si>
+    <t>(New Tab) Bargaining Unit (Pending with Labor)</t>
+  </si>
+  <si>
+    <t>Labor Status</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">December 2020 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>October 2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>December 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> April 2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In-person activities were delayed due to Covid. Need to come up with possible virtual options. New painting and furniture delivered for spaces within the hall; painting was delayed due to Covid; Meeting being held to re-open visitation; April 21 youth will be given vaccine which will possibly open things up as well. As a result of the resurgence of Covid -delta this initiative remains on hold.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Status is "On Hold".</t>
+    </r>
+  </si>
+  <si>
+    <t>Strategic Plan Update Q4 2021
+Juvenile Facilities Division
+Project Lead: Deputy Chief Ian Long</t>
+  </si>
+  <si>
+    <r>
+      <t>Research is working with staff to ensure proper data entry into Tyler Supervision; Validation study would take 6+ months to fully complete; Request to extend to June 2021.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Development work prioritized on Tyler Supervision. Request extension on the validation of the tool. 12 months of data needed. Request start date to October 2021. To be completed April 2022. Testing on December 27.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Laura: The research team examined all 2021 JDRAI data and determined that our sample size is too small to do a full validation study at this time. However, we produced a report that we are sharing with executive leadership next Friday and which will be shared with the Chief. The report includes analysis of JDRAI scores, overrides and mandatory detentions. Since the number of releases was too small for a validation study, this is the best we can do at this time for this item! Follow up w/ Laura </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3/3/2022 -The Research team conducted an in-depth analysis of JDRAI data for 2021, presented findings to executive leadership and routed the final report to Chief. We don’t, however, have a large enough sample size of releases to validate the tool at this time. We will need at least one more year of data (and, likely at least 2 years) in order to have a large enough sample to calculate statistical significance for failure to appear and re-arrest rates in order to conduct a validation study. </t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +406,188 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -45,15 +595,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +867,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>326273</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE80B4F6-38E7-45FC-A1AB-2A0AC11DDAFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="559954" y="235398"/>
+          <a:ext cx="723193" cy="752380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,7 +944,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +956,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +1003,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +1055,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +1223,499 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="59" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="43.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="50">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="36"/>
+    </row>
+    <row r="5" spans="1:15" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="26">
+        <v>2</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="47"/>
+      <c r="N6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="26">
+        <v>2</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="48"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="42">
+        <v>2</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="48"/>
+      <c r="N9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="23">
+        <v>2</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="48"/>
+      <c r="N10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="48"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="26">
+        <v>4</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="48"/>
+      <c r="N12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="23">
+        <v>5</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="48"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:15" ht="135" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="42">
+        <v>1</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="47"/>
+      <c r="N15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="23">
+        <v>2</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="48"/>
+      <c r="N16" s="4"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:N13">
+    <sortCondition ref="B8:B13"/>
+    <sortCondition ref="C8:C13"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M5 M6:M1048576" xr:uid="{5769E516-62B5-483C-9572-780910C6D60D}">
+      <formula1>"Pending Labor, Labor TA, NA"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;CPage &amp;P of 1</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ReportsQ4/JFac.xlsx
+++ b/ReportsQ4/JFac.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkang\Desktop\updateSite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkang\Desktop\pythonDir\ReportsQ4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D9A4A-43B5-4BF6-82DF-42B3C9B2AF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7926F301-4D0A-42BB-A597-0DD996600B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="405" windowWidth="24390" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -37,374 +37,195 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
-    <t>TASK</t>
-  </si>
-  <si>
-    <t>Percent (%) Complete</t>
-  </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>START DATE</t>
-  </si>
-  <si>
-    <t>END DATE</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>CONTACT PERSON</t>
-  </si>
-  <si>
-    <t>GOAL</t>
-  </si>
-  <si>
-    <t>OBJ</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
-    <t>Develop and implement family engagement activities (i.e. family night, parent orientation, etc.).</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Include clinicians in multidisciplinary team meetings for medium-to-high-risk juvenile clients.</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Fully implement Tyler Supervision.</t>
-  </si>
-  <si>
-    <t>Ian Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revise the intake process to include an assessments of juveniles’ housing needs. </t>
-  </si>
-  <si>
-    <t>Establish Tyler Supervision core team for Juvenile Facilities.</t>
-  </si>
-  <si>
-    <t>Implement programming in Juvenile Hall to address criminogenic needs and life skills in ways that are appealing to youth.</t>
-  </si>
-  <si>
-    <t>Ian Long/James Rivers</t>
-  </si>
-  <si>
-    <t>James Rivers/Ian Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superintendents </t>
-  </si>
-  <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
-    <t>On Target</t>
-  </si>
-  <si>
-    <t>Phase 1: Oct 2019--Dec 2020
-Phase 2: Jan 2021--June 2022
-Phase 3: July 2022--Dec 2023</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>October 2019</t>
-  </si>
-  <si>
-    <t>January 2020</t>
-  </si>
-  <si>
-    <t>July 2019</t>
-  </si>
-  <si>
-    <t>February 2020</t>
-  </si>
-  <si>
-    <t>June 2020</t>
-  </si>
-  <si>
-    <t>December 2020</t>
-  </si>
-  <si>
-    <t>September 2019</t>
-  </si>
-  <si>
-    <t>Implement a detention assessment tool in Juvenile Hall.</t>
-  </si>
-  <si>
-    <t>Validate the detention assessment tool in Juvenile Hall.</t>
-  </si>
-  <si>
-    <t>March 2020</t>
-  </si>
-  <si>
-    <t>Brian Ford</t>
-  </si>
-  <si>
-    <t>Provide tablets to all youth in Juvenile Hall and Camp Sweeney for academic and incentive programming.</t>
-  </si>
-  <si>
-    <t>COMPLETED TASKS</t>
-  </si>
-  <si>
-    <t>ONGOING TASKS</t>
-  </si>
-  <si>
-    <t>PHASE 2 &amp; 3 TASKS</t>
-  </si>
-  <si>
-    <t>PHASE 1 TASKS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Complete: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>BLUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-On Target: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>GREEN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-At Risk: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>YELLOW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Past Due: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>RED</t>
-    </r>
-  </si>
-  <si>
-    <t>New classification policy started in Feb; training completed for new process</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>June 2020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-August 2020</t>
-    </r>
-  </si>
-  <si>
-    <t>TS went live, work ongoing as needed</t>
-  </si>
-  <si>
-    <t>Providing ART and One circle programs. Still needs to train 60 staff in BITS. In October 2020, 8 staff completed Courage to Change training and have received journals for individuals and group CBT programs</t>
-  </si>
-  <si>
-    <t>Laura Chavez</t>
-  </si>
-  <si>
-    <t>(New Tab) Bargaining Unit (Pending with Labor)</t>
-  </si>
-  <si>
-    <t>Labor Status</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">December 2020 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>October 2021</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>December 2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> April 2022</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>In-person activities were delayed due to Covid. Need to come up with possible virtual options. New painting and furniture delivered for spaces within the hall; painting was delayed due to Covid; Meeting being held to re-open visitation; April 21 youth will be given vaccine which will possibly open things up as well. As a result of the resurgence of Covid -delta this initiative remains on hold.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Status is "On Hold".</t>
-    </r>
-  </si>
-  <si>
-    <t>Strategic Plan Update Q4 2021
-Juvenile Facilities Division
-Project Lead: Deputy Chief Ian Long</t>
-  </si>
-  <si>
-    <r>
-      <t>Research is working with staff to ensure proper data entry into Tyler Supervision; Validation study would take 6+ months to fully complete; Request to extend to June 2021.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Development work prioritized on Tyler Supervision. Request extension on the validation of the tool. 12 months of data needed. Request start date to October 2021. To be completed April 2022. Testing on December 27.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Laura: The research team examined all 2021 JDRAI data and determined that our sample size is too small to do a full validation study at this time. However, we produced a report that we are sharing with executive leadership next Friday and which will be shared with the Chief. The report includes analysis of JDRAI scores, overrides and mandatory detentions. Since the number of releases was too small for a validation study, this is the best we can do at this time for this item! Follow up w/ Laura </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3/3/2022 -The Research team conducted an in-depth analysis of JDRAI data for 2021, presented findings to executive leadership and routed the final report to Chief. We don’t, however, have a large enough sample size of releases to validate the tool at this time. We will need at least one more year of data (and, likely at least 2 years) in order to have a large enough sample to calculate statistical significance for failure to appear and re-arrest rates in order to conduct a validation study. </t>
-    </r>
+    <t>*</t>
+  </si>
+  <si>
+    <t>M*rch 2020</t>
+  </si>
+  <si>
+    <t>D*c*mb*r 2020</t>
+  </si>
+  <si>
+    <t>*BJ</t>
+  </si>
+  <si>
+    <t>Br**n F*rd</t>
+  </si>
+  <si>
+    <t>*ng**ng</t>
+  </si>
+  <si>
+    <t>J*n* 2020</t>
+  </si>
+  <si>
+    <t>J*n**r* 2020</t>
+  </si>
+  <si>
+    <t>F*br**r* 2020</t>
+  </si>
+  <si>
+    <t>G***</t>
+  </si>
+  <si>
+    <t>***r* Ch*v*z</t>
+  </si>
+  <si>
+    <t>**n **ng/J*m** R*v*r*</t>
+  </si>
+  <si>
+    <t>J*m** R*v*r*/**n **ng</t>
+  </si>
+  <si>
+    <t>**n **ng</t>
+  </si>
+  <si>
+    <t>J*** 2019</t>
+  </si>
+  <si>
+    <t>***K</t>
+  </si>
+  <si>
+    <t>***R* D***</t>
+  </si>
+  <si>
+    <t>*ND D***</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>**b*r ******</t>
+  </si>
+  <si>
+    <t>N****</t>
+  </si>
+  <si>
+    <t>V***d*** *h* d***n***n ******m*n* **** *n J*v*n*** H***.</t>
+  </si>
+  <si>
+    <t>D*c*mb*r 2020 *c**b*r 2021</t>
+  </si>
+  <si>
+    <t>*n **rg**</t>
+  </si>
+  <si>
+    <t>J*n* 2020
+**g*** 2020</t>
+  </si>
+  <si>
+    <t>** w*n* **v*, w*rk *ng**ng ** n**d*d</t>
+  </si>
+  <si>
+    <t>*NG**NG ***K*</t>
+  </si>
+  <si>
+    <t>*c**b*r 2019</t>
+  </si>
+  <si>
+    <t>**r***g*c ***n **d*** Q4 2021
+J*v*n*** F*c******* D*v****n
+*r*j*c* ***d: D***** Ch**f **n **ng</t>
+  </si>
+  <si>
+    <t>*h*** 1: *c* 2019--D*c 2020
+*h*** 2: J*n 2021--J*n* 2022
+*h*** 3: J*** 2022--D*c 2023</t>
+  </si>
+  <si>
+    <t>**rc*n* (%) C*m*****</t>
+  </si>
+  <si>
+    <t>C*m*****: B***
+*n **rg**: GR**N
+** R**k: *****W
+**** D**: R*D</t>
+  </si>
+  <si>
+    <t>(N*w **b) B*rg**n*ng *n** (**nd*ng w**h **b*r)</t>
+  </si>
+  <si>
+    <t>C*N**C* **R**N</t>
+  </si>
+  <si>
+    <t>*H*** 1 ***K*</t>
+  </si>
+  <si>
+    <t>*H*** 2 &amp; 3 ***K*</t>
+  </si>
+  <si>
+    <t>D*c*mb*r 2021 **r** 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R****rch ** w*rk*ng w**h ***ff ** *n**r* *r***r d*** *n*r* *n** ****r ****rv****n; V***d****n ***d* w***d **k* 6+ m*n*h* ** f**** c*m*****; R*q**** ** *x**nd ** J*n* 2021. D*v****m*n* w*rk *r**r***z*d *n ****r ****rv****n. R*q**** *x**n***n *n *h* v***d****n *f *h* ****. 12 m*n*h* *f d*** n**d*d. R*q**** ***r* d*** ** *c**b*r 2021. ** b* c*m*****d **r** 2022. *****ng *n D*c*mb*r 27. 
+***r*: *h* r****rch ***m *x*m*n*d *** 2021 JDR** d*** *nd d***rm*n*d *h** **r **m*** **z* ** *** *m*** ** d* * f*** v***d****n ***d* ** *h** **m*. H*w*v*r, w* *r*d*c*d * r***r* *h** w* *r* *h*r*ng w**h *x*c***v* ***d*r*h** n*x* Fr*d** *nd wh*ch w*** b* *h*r*d w**h *h* Ch**f. *h* r***r* *nc**d** *n****** *f JDR** *c*r**, *v*rr*d** *nd m*nd***r* d***n***n*. **nc* *h* n*mb*r *f r******* w** *** *m*** f*r * v***d****n ***d*, *h** ** *h* b*** w* c*n d* ** *h** **m* f*r *h** ***m! F****w ** w/ ***r* 
+3/3/2022 -*h* R****rch ***m c*nd*c**d *n *n-d***h *n****** *f JDR** d*** f*r 2021, *r***n**d f*nd*ng* ** *x*c***v* ***d*r*h** *nd r****d *h* f*n** r***r* ** Ch**f. W* d*n’*, h*w*v*r, h*v* * **rg* *n**gh **m*** **z* *f r******* ** v***d*** *h* **** ** *h** **m*. W* w*** n**d ** ***** *n* m*r* ***r *f d*** (*nd, **k*** ** ***** 2 ***r*) *n *rd*r ** h*v* * **rg* *n**gh **m*** ** c**c***** ********c** **gn*f*c*nc* f*r f****r* ** *****r *nd r*-*rr*** r**** *n *rd*r ** c*nd*c* * v***d****n ***d*. </t>
+  </si>
+  <si>
+    <t>C*M*****D ***K*</t>
+  </si>
+  <si>
+    <t>*m***m*n* * d***n***n ******m*n* **** *n J*v*n*** H***.</t>
+  </si>
+  <si>
+    <t>C*m*****d</t>
+  </si>
+  <si>
+    <t>*m***m*n* *r*gr*mm*ng *n J*v*n*** H*** ** *ddr*** cr*m*n*g*n*c n**d* *nd **f* *k**** *n w*** *h** *r* *******ng ** ****h.</t>
+  </si>
+  <si>
+    <t>*r*v*d*ng *R* *nd *n* c*rc** *r*gr*m*. ***** n**d* ** *r**n 60 ***ff *n B***. *n *c**b*r 2020, 8 ***ff c*m*****d C**r*g* ** Ch*ng* *r**n*ng *nd h*v* r*c**v*d j**rn*** f*r *nd*v*d**** *nd gr*** CB* *r*gr*m*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R*v*** *h* *n**k* *r*c*** ** *nc**d* *n ******m*n** *f j*v*n****’ h****ng n**d*. </t>
+  </si>
+  <si>
+    <t>N*w c*****f*c****n ****c* ***r**d *n F*b; *r**n*ng c*m*****d f*r n*w *r*c***</t>
+  </si>
+  <si>
+    <t>****b***h ****r ****rv****n c*r* ***m f*r J*v*n*** F*c*******.</t>
+  </si>
+  <si>
+    <t>F**** *m***m*n* ****r ****rv****n.</t>
+  </si>
+  <si>
+    <t>*r*v*d* **b**** ** *** ****h *n J*v*n*** H*** *nd C*m* *w**n** f*r *c*d*m*c *nd *nc*n**v* *r*gr*mm*ng.</t>
+  </si>
+  <si>
+    <t>*****mb*r 2019</t>
+  </si>
+  <si>
+    <t>D*v**** *nd *m***m*n* f*m*** *ng*g*m*n* *c**v***** (*.*. f*m*** n*gh*, **r*n* *r**n*****n, **c.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">****r*n**nd*n** </t>
+  </si>
+  <si>
+    <t>*n-**r**n *c**v***** w*r* d*****d d** ** C*v*d. N**d ** c*m* ** w**h *****b** v*r**** *****n*. N*w ***n**ng *nd f*rn***r* d***v*r*d f*r ***c** w**h*n *h* h***; ***n**ng w** d*****d d** ** C*v*d; M****ng b**ng h**d ** r*-***n v********n; **r** 21 ****h w*** b* g*v*n v*cc*n* wh*ch w*** *****b** ***n *h*ng* ** ** w***. ** * r***** *f *h* r***rg*nc* *f C*v*d -d**** *h** *n******v* r*m**n* *n h**d. ****** ** "*n H**d".</t>
+  </si>
+  <si>
+    <t>*nc**d* c**n*c**n* *n m****d**c****n*r* ***m m****ng* f*r m*d**m-**-h*gh-r**k j*v*n*** c***n**.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -482,34 +303,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri (Body)_x0000_"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri (Body)_x0000_"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri (Body)_x0000_"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="7"/>
-      <name val="Calibri (Body)_x0000_"/>
     </font>
     <font>
       <b/>
@@ -538,13 +335,6 @@
     <font>
       <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -689,165 +479,165 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1233,7 +1023,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1259,24 +1049,24 @@
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="52" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G2" s="52"/>
       <c r="H2" s="51" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I2" s="51"/>
       <c r="J2" s="51"/>
       <c r="K2" s="51"/>
       <c r="L2" s="35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N2" s="50">
         <v>44562</v>
@@ -1284,22 +1074,22 @@
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H3" s="8">
         <v>0.25</v>
@@ -1314,18 +1104,18 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
@@ -1342,7 +1132,7 @@
     </row>
     <row r="5" spans="1:15" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
@@ -1357,7 +1147,7 @@
       <c r="M5" s="46"/>
       <c r="N5" s="37"/>
       <c r="O5" s="38" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="409.5" x14ac:dyDescent="0.2">
@@ -1368,35 +1158,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M6" s="47"/>
       <c r="N6" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
@@ -1419,26 +1209,26 @@
         <v>2</v>
       </c>
       <c r="C8" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="24" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M8" s="48"/>
       <c r="N8" s="4"/>
@@ -1451,30 +1241,30 @@
         <v>2</v>
       </c>
       <c r="C9" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>28</v>
-      </c>
       <c r="G9" s="40" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
       <c r="L9" s="13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M9" s="48"/>
       <c r="N9" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.2">
@@ -1485,30 +1275,30 @@
         <v>2</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M10" s="48"/>
       <c r="N10" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
@@ -1519,26 +1309,26 @@
         <v>4</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M11" s="48"/>
       <c r="N11" s="4"/>
@@ -1551,30 +1341,30 @@
         <v>4</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M12" s="48"/>
       <c r="N12" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.2">
@@ -1585,26 +1375,26 @@
         <v>5</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M13" s="48"/>
       <c r="N13" s="4"/>
@@ -1612,7 +1402,7 @@
     <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="28" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
@@ -1627,7 +1417,7 @@
       <c r="M14" s="46"/>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="1:15" ht="135" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="150" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1635,33 +1425,33 @@
         <v>1</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>23</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
       <c r="K15" s="14"/>
       <c r="L15" s="13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M15" s="47"/>
       <c r="N15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.2">
@@ -1672,26 +1462,26 @@
         <v>2</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M16" s="48"/>
       <c r="N16" s="4"/>
@@ -1705,7 +1495,7 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M5 M6:M1048576" xr:uid="{5769E516-62B5-483C-9572-780910C6D60D}">
       <formula1>"Pending Labor, Labor TA, NA"</formula1>
